--- a/dl_classification_notebook/csv_preformance/two_sats_preformance_2nd.xlsx
+++ b/dl_classification_notebook/csv_preformance/two_sats_preformance_2nd.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nadav.k\Documents\DS\DL_classification\SAR_DL_classification\dl_classification_notebook\csv_preformance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1651A24E-7454-49F1-8061-7D324FB9AD8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C6FC35A-80CB-4F3D-AFA1-17CD7DE7C47D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="61230" yWindow="1560" windowWidth="21600" windowHeight="11295" xr2:uid="{E69EEE4B-FBC7-452D-8890-4A373E080FB4}"/>
+    <workbookView xWindow="63450" yWindow="3345" windowWidth="21600" windowHeight="11295" xr2:uid="{E69EEE4B-FBC7-452D-8890-4A373E080FB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>

--- a/dl_classification_notebook/csv_preformance/two_sats_preformance_2nd.xlsx
+++ b/dl_classification_notebook/csv_preformance/two_sats_preformance_2nd.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nadav.k\Documents\DS\DL_classification\SAR_DL_classification\dl_classification_notebook\csv_preformance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C6FC35A-80CB-4F3D-AFA1-17CD7DE7C47D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{46D3BB6D-D5FC-46BE-A498-F38FDF5FCDBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="63450" yWindow="3345" windowWidth="21600" windowHeight="11295" xr2:uid="{E69EEE4B-FBC7-452D-8890-4A373E080FB4}"/>
+    <workbookView xWindow="64140" yWindow="4035" windowWidth="21600" windowHeight="11295" xr2:uid="{E69EEE4B-FBC7-452D-8890-4A373E080FB4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1931,8 +1932,8 @@
       <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>105916</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>420241</xdr:colOff>
       <xdr:row>29</xdr:row>
       <xdr:rowOff>181698</xdr:rowOff>
     </xdr:to>
@@ -2290,13 +2291,14 @@
   <dimension ref="A1:M552"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L1" sqref="L1"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="3" width="9.140625" customWidth="1"/>
     <col min="5" max="5" width="19.85546875" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
     <col min="9" max="9" width="15" customWidth="1"/>
     <col min="11" max="11" width="10.28515625" customWidth="1"/>
